--- a/data/trans_orig/P32D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49152E43-A3C6-4C2A-865E-D145F8F4BF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C72B1307-49BF-4D82-BC8D-F49FBDD3D9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51F00317-F93F-415E-B0CF-C9408B2B407F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D454C0DF-9901-466E-9ADE-6230D82F2D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>11,59%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>88,41%</t>
   </si>
   <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>9,7%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>90,3%</t>
   </si>
   <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,103 +194,103 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>6,98%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>96,0%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>93,02%</t>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{627FF2DA-47A4-4CF7-A14C-82BD9EF8BDB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42134E69-5DAE-4034-80C8-3EC8AB428812}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1315,7 +1315,7 @@
         <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
@@ -1324,13 +1324,13 @@
         <v>214832</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1363,10 +1363,10 @@
         <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>2556</v>
@@ -1375,10 +1375,10 @@
         <v>2376253</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>84</v>

--- a/data/trans_orig/P32D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C72B1307-49BF-4D82-BC8D-F49FBDD3D9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37EA969D-09F1-404A-85FC-9285040C661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D454C0DF-9901-466E-9ADE-6230D82F2D0B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D2AA994-83B7-42AB-B0BD-9C6CADFA0E92}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42134E69-5DAE-4034-80C8-3EC8AB428812}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01929AC1-F59C-4FBA-97BB-6CE26B29E2FC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P32D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37EA969D-09F1-404A-85FC-9285040C661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{869AA77C-D815-43AF-8BC1-362F935FA592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8D2AA994-83B7-42AB-B0BD-9C6CADFA0E92}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BFA5B59-08A1-4C23-957A-100720D21837}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>11,59%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>88,41%</t>
   </si>
   <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>9,7%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>90,3%</t>
   </si>
   <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,103 +194,103 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>11,13%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>88,87%</t>
   </si>
   <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
   <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>6,98%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>93,82%</t>
   </si>
   <si>
-    <t>96,0%</t>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>93,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01929AC1-F59C-4FBA-97BB-6CE26B29E2FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E77CAF0-FBAD-4989-9154-DAF2E95D04CE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1315,7 +1315,7 @@
         <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
@@ -1324,13 +1324,13 @@
         <v>214832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1363,10 +1363,10 @@
         <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>2556</v>
@@ -1375,10 +1375,10 @@
         <v>2376253</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>84</v>

--- a/data/trans_orig/P32D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{869AA77C-D815-43AF-8BC1-362F935FA592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBF1A353-6755-4203-8F2F-3CD0940D20EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4BFA5B59-08A1-4C23-957A-100720D21837}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{637DAA49-2AAC-44FF-AFFB-84A0C57436EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +134,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>92,61%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E77CAF0-FBAD-4989-9154-DAF2E95D04CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89022E5A-5422-4A95-A8CE-49488F00293B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,7 +826,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>29143</v>
+        <v>27089</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +841,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>6807</v>
+        <v>4976</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +856,7 @@
         <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>35950</v>
+        <v>32065</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -877,7 +877,7 @@
         <v>277</v>
       </c>
       <c r="D5" s="7">
-        <v>222357</v>
+        <v>213109</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -892,7 +892,7 @@
         <v>113</v>
       </c>
       <c r="I5" s="7">
-        <v>66156</v>
+        <v>61017</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +907,7 @@
         <v>390</v>
       </c>
       <c r="N5" s="7">
-        <v>288513</v>
+        <v>274126</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -928,7 +928,7 @@
         <v>310</v>
       </c>
       <c r="D6" s="7">
-        <v>251500</v>
+        <v>240198</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -943,7 +943,7 @@
         <v>121</v>
       </c>
       <c r="I6" s="7">
-        <v>72963</v>
+        <v>65993</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +958,7 @@
         <v>431</v>
       </c>
       <c r="N6" s="7">
-        <v>324463</v>
+        <v>306191</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -981,7 +981,7 @@
         <v>84</v>
       </c>
       <c r="D7" s="7">
-        <v>97275</v>
+        <v>91591</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -996,7 +996,7 @@
         <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>25299</v>
+        <v>22949</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1011,7 +1011,7 @@
         <v>118</v>
       </c>
       <c r="N7" s="7">
-        <v>122573</v>
+        <v>114540</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1032,7 +1032,7 @@
         <v>832</v>
       </c>
       <c r="D8" s="7">
-        <v>905194</v>
+        <v>890988</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1047,7 +1047,7 @@
         <v>685</v>
       </c>
       <c r="I8" s="7">
-        <v>630443</v>
+        <v>685763</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1062,7 +1062,7 @@
         <v>1517</v>
       </c>
       <c r="N8" s="7">
-        <v>1535639</v>
+        <v>1576750</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1083,7 +1083,7 @@
         <v>916</v>
       </c>
       <c r="D9" s="7">
-        <v>1002469</v>
+        <v>982579</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1098,7 @@
         <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>655742</v>
+        <v>708712</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1113,7 @@
         <v>1635</v>
       </c>
       <c r="N9" s="7">
-        <v>1658212</v>
+        <v>1691290</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1136,7 +1136,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>27345</v>
+        <v>25269</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>28965</v>
+        <v>26154</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1166,7 +1166,7 @@
         <v>52</v>
       </c>
       <c r="N10" s="7">
-        <v>56309</v>
+        <v>51423</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1187,7 +1187,7 @@
         <v>318</v>
       </c>
       <c r="D11" s="7">
-        <v>320784</v>
+        <v>316731</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1202,7 +1202,7 @@
         <v>331</v>
       </c>
       <c r="I11" s="7">
-        <v>231317</v>
+        <v>218804</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1217,7 +1217,7 @@
         <v>649</v>
       </c>
       <c r="N11" s="7">
-        <v>552101</v>
+        <v>535535</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1238,7 +1238,7 @@
         <v>344</v>
       </c>
       <c r="D12" s="7">
-        <v>348129</v>
+        <v>342000</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1253,7 @@
         <v>357</v>
       </c>
       <c r="I12" s="7">
-        <v>260282</v>
+        <v>244958</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1268,7 @@
         <v>701</v>
       </c>
       <c r="N12" s="7">
-        <v>608410</v>
+        <v>586958</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1291,46 +1291,46 @@
         <v>143</v>
       </c>
       <c r="D13" s="7">
-        <v>153762</v>
+        <v>143949</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>68</v>
       </c>
       <c r="I13" s="7">
-        <v>61070</v>
+        <v>54079</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>211</v>
       </c>
       <c r="N13" s="7">
-        <v>214832</v>
+        <v>198028</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,7 +1342,7 @@
         <v>1427</v>
       </c>
       <c r="D14" s="7">
-        <v>1448335</v>
+        <v>1420828</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1351,34 +1351,34 @@
         <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
         <v>1129</v>
       </c>
       <c r="I14" s="7">
-        <v>927917</v>
+        <v>965584</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>2556</v>
       </c>
       <c r="N14" s="7">
-        <v>2376253</v>
+        <v>2386412</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>84</v>
@@ -1393,7 +1393,7 @@
         <v>1570</v>
       </c>
       <c r="D15" s="7">
-        <v>1602097</v>
+        <v>1564777</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1408,7 @@
         <v>1197</v>
       </c>
       <c r="I15" s="7">
-        <v>988987</v>
+        <v>1019663</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1423,7 @@
         <v>2767</v>
       </c>
       <c r="N15" s="7">
-        <v>2591085</v>
+        <v>2584440</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
